--- a/medicine/Enfance/Les_Vauriens/Les_Vauriens.xlsx
+++ b/medicine/Enfance/Les_Vauriens/Les_Vauriens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Vauriens est un téléfilm français réalisé par Dominique Ladoge, diffusé pour la première fois en 2006.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ana est juge pour enfants, elle n'a jamais connu son père, Louis Delpierre. Lorsqu'elle apprend sa mort, elle se rend pour la première fois dans sa maison à Belle-Île-en-Mer. Elle y découvre le véritable passé de cet homme et plonge alors dans l'histoire des bagnes d'enfants. Loulou a 10 ans en 1933 et n'a commis d'autre crime que d'être abandonné par ses parents. Incarcéré à la colonie pénitentiaire de Belle-Île-en-Mer, il fait l'apprentissage de la violence et des privations. Par chance, il devient l'ami de Robert Favart, un « grand » de 14 ans, un dur, qui le protège et lui apprend à se défendre. La rencontre avec Paul Alexis, grand reporter, va constituer un tournant dans leur vie...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Dominique Ladoge
 Scénario, adaptation et dialogues : Sandro Agénor
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Senejoux : Louis Delpierre dit Loulou
 Frédéric Papalia : Robert Favart
@@ -650,7 +668,9 @@
           <t>Thème</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce téléfilm lève le voile sur l'existence des bagnes pour enfants dans la France de l'entre-deux-guerres, la violence, la corruption, la promiscuité qui y régnait. Des centres de détention comparables au bagne pour adultes, mais il ne s'agissait à l'époque que d'enfants. Certains de 14 ou 16 ans, mais aussi des plus jeunes de 8 à 10 ans, qui se retrouvaient ainsi mélangés, avec toutes les dérives possibles. Un fait presque oublié aujourd'hui.
 Ce film a beau être une fiction, il raconte néanmoins une histoire bien réelle qui s'est passé à l'été 1934 en Bretagne. Au mois d'août de cette année, 55 enfants se sont échappés de la maison de redressement de Belle-Île-en-Mer à cause des brimades et des conditions de vie effroyables qu'ils subissaient. La population de l'île se lança alors dans une véritable « chasse à l'enfant » pour retrouver les fuyards. Ce fait divers a été relaté par le journaliste Alexis Danan, dans les colonnes de Paris-Soir, l'affaire mit en lumière le régime très sévère des pénitenciers pour enfants.
@@ -683,7 +703,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ces évènements ont inspiré un poème à Jacques Prévert, intitulé « La Chasse à l'enfant » : il y dénonce les méthodes assez peu courantes d'offrir une prime de 20 francs à tout citoyen, habitant ou touriste, qui permettrait de capturer un enfant fugitif.
 Marcel Carné a aussi rendu hommage à ces enfants, dans son film inachevé La Fleur de l'âge, de 1947.
